--- a/biology/Botanique/Handroanthus_chrysanthus/Handroanthus_chrysanthus.xlsx
+++ b/biology/Botanique/Handroanthus_chrysanthus/Handroanthus_chrysanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Handroanthus chrysanthus — localement appelé araguaney — est une espèce d'arbres à feuilles caduques de la famille des Bignoniaceae, originaire des régions intertropicales d'Amérique du Sud. Le 29 mai 1948, il a été déclaré arbre national du Venezuela.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre rustique supportant les sols durs, sec ou pauvres. Par conséquent, ses racines exigent un terrain bien drainé. Sa hauteur varie de 6 à 12 m. Les feuilles sont opposées, pétiolées, elliptiques, lancéolées, à nervures pennées. Les fleurs sont grandes, de forme tubulaire, avec corolle évasée de couleur jaune foncé veiné de rouge, d'environ 6 cm de long. Elles apparaissent de février à avril avant que l'arbre n'ait retrouvé ses feuilles. Le fruit est une capsule déhiscente souvent mûre à la fin de saison sèche. C'est un arbre à croissance lente mais prolongée.
 Comme on l'a dit, la floraison et la fructification ont lieu en saison sèche, de février à avril, de cette façon les graines peuvent profiter des premières pluies. Si saison des pluies est retardée, l'arbre peut refleurir.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les clairières des forêts de feuillus tropicaux de la vaste région du plateau des Guyanes. Son habitat s'étend de 400 à 1 300 m d'altitude.
 </t>
